--- a/Assets/_FightGame/xmls/CareerInfo.xlsx
+++ b/Assets/_FightGame/xmls/CareerInfo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -486,7 +486,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -732,7 +732,7 @@
         <v>150</v>
       </c>
       <c r="H9">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -758,7 +758,7 @@
         <v>200</v>
       </c>
       <c r="H10">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -810,7 +810,7 @@
         <v>150</v>
       </c>
       <c r="H12">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -836,7 +836,7 @@
         <v>200</v>
       </c>
       <c r="H13">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
